--- a/1262020cw.xlsx
+++ b/1262020cw.xlsx
@@ -22,7 +22,7 @@
     <t>Reg</t>
   </si>
   <si>
-    <t>Test 1</t>
+    <t>Test_1</t>
   </si>
   <si>
     <t>Test 2</t>
@@ -163,7 +163,7 @@
     <t>H190409H</t>
   </si>
   <si>
-    <t>Makauzde</t>
+    <t>Makaudze</t>
   </si>
   <si>
     <t>E</t>
@@ -287,8 +287,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="# ###/###"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -350,7 +351,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -364,6 +365,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1511,7 +1515,9 @@
       <c r="C3" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="5">
+        <v>0.6764705882352942</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1639,7 +1645,9 @@
       <c r="C11" t="s" s="3">
         <v>33</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="5">
+        <v>0.5588235294117647</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1655,7 +1663,9 @@
       <c r="C12" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="5">
+        <v>0.4117647058823529</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1687,7 +1697,9 @@
       <c r="C14" t="s" s="3">
         <v>39</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="5">
+        <v>0.5588235294117647</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1991,7 +2003,9 @@
       <c r="C33" t="s" s="3">
         <v>82</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="5">
+        <v>0.7647058823529411</v>
+      </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>

--- a/1262020cw.xlsx
+++ b/1262020cw.xlsx
@@ -287,9 +287,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="# ###/###"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -351,7 +350,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -364,10 +363,13 @@
     <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1500,10 +1502,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="s" s="3">
@@ -1515,13 +1517,13 @@
       <c r="C3" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0.6764705882352942</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="s" s="3">
@@ -1534,10 +1536,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="s" s="3">
@@ -1550,10 +1552,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="s" s="3">
@@ -1565,11 +1567,13 @@
       <c r="C6" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="D6" s="4">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="s" s="3">
@@ -1581,11 +1585,13 @@
       <c r="C7" t="s" s="3">
         <v>25</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="D7" s="4">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="s" s="3">
@@ -1598,10 +1604,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="s" s="3">
@@ -1614,10 +1620,10 @@
         <v>29</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="s" s="3">
@@ -1630,10 +1636,10 @@
         <v>31</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="s" s="3">
@@ -1645,13 +1651,13 @@
       <c r="C11" t="s" s="3">
         <v>33</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>0.5588235294117647</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="s" s="3">
@@ -1663,13 +1669,13 @@
       <c r="C12" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>0.4117647058823529</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="s" s="3">
@@ -1682,10 +1688,10 @@
         <v>37</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="s" s="3">
@@ -1697,13 +1703,13 @@
       <c r="C14" t="s" s="3">
         <v>39</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>0.5588235294117647</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="s" s="3">
@@ -1715,11 +1721,13 @@
       <c r="C15" t="s" s="3">
         <v>41</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="D15" s="6">
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="s" s="3">
@@ -1732,10 +1740,10 @@
         <v>43</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="s" s="3">
@@ -1748,10 +1756,10 @@
         <v>45</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="s" s="3">
@@ -1763,11 +1771,13 @@
       <c r="C18" t="s" s="3">
         <v>47</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="D18" s="4">
+        <v>0.7941176470588235</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="s" s="3">
@@ -1780,10 +1790,10 @@
         <v>49</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="s" s="3">
@@ -1795,11 +1805,13 @@
       <c r="C20" t="s" s="3">
         <v>52</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="D20" s="4">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="s" s="3">
@@ -1812,10 +1824,10 @@
         <v>54</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="s" s="3">
@@ -1828,10 +1840,10 @@
         <v>56</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="s" s="3">
@@ -1843,11 +1855,13 @@
       <c r="C23" t="s" s="3">
         <v>58</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="D23" s="4">
+        <v>0.6176470588235294</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="s" s="3">
@@ -1860,10 +1874,10 @@
         <v>61</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="s" s="3">
@@ -1875,11 +1889,13 @@
       <c r="C25" t="s" s="3">
         <v>64</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="D25" s="4">
+        <v>0.5588235294117647</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="s" s="3">
@@ -1892,10 +1908,10 @@
         <v>66</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="s" s="3">
@@ -1907,11 +1923,13 @@
       <c r="C27" t="s" s="3">
         <v>68</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="D27" s="4">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="s" s="3">
@@ -1924,10 +1942,10 @@
         <v>70</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="s" s="3">
@@ -1939,11 +1957,13 @@
       <c r="C29" t="s" s="3">
         <v>72</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="D29" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="s" s="3">
@@ -1956,10 +1976,10 @@
         <v>75</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="s" s="3">
@@ -1971,11 +1991,13 @@
       <c r="C31" t="s" s="3">
         <v>77</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="D31" s="4">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="s" s="3">
@@ -1988,10 +2010,10 @@
         <v>79</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="s" s="3">
@@ -2003,13 +2025,13 @@
       <c r="C33" t="s" s="3">
         <v>82</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>0.7647058823529411</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="s" s="3">
@@ -2022,10 +2044,10 @@
         <v>84</v>
       </c>
       <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="s" s="3">
@@ -2038,10 +2060,10 @@
         <v>87</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="s" s="3">
@@ -2054,10 +2076,10 @@
         <v>89</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1262020cw.xlsx
+++ b/1262020cw.xlsx
@@ -232,7 +232,7 @@
     <t>H190519Z</t>
   </si>
   <si>
-    <t>Nyaruviri</t>
+    <t>Nyaruviro</t>
   </si>
   <si>
     <t>B</t>
@@ -1501,7 +1501,9 @@
       <c r="C2" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4">
+        <v>0.5294117647058824</v>
+      </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1535,7 +1537,9 @@
       <c r="C4" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4">
+        <v>0.7647058823529411</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1551,7 +1555,9 @@
       <c r="C5" t="s" s="3">
         <v>19</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4">
+        <v>0.5588235294117647</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1603,7 +1609,9 @@
       <c r="C8" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4">
+        <v>0.6470588235294118</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1619,7 +1627,9 @@
       <c r="C9" t="s" s="3">
         <v>29</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4">
+        <v>0.7352941176470589</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1635,7 +1645,9 @@
       <c r="C10" t="s" s="3">
         <v>31</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4">
+        <v>0.3529411764705883</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1687,7 +1699,9 @@
       <c r="C13" t="s" s="3">
         <v>37</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4">
+        <v>0.3529411764705883</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -1739,7 +1753,9 @@
       <c r="C16" t="s" s="3">
         <v>43</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4">
+        <v>0.6470588235294118</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1755,7 +1771,9 @@
       <c r="C17" t="s" s="3">
         <v>45</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4">
+        <v>0.5588235294117647</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -1789,7 +1807,9 @@
       <c r="C19" t="s" s="3">
         <v>49</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -1823,7 +1843,9 @@
       <c r="C21" t="s" s="3">
         <v>54</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4">
+        <v>0.6470588235294118</v>
+      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -1839,7 +1861,9 @@
       <c r="C22" t="s" s="3">
         <v>56</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4">
+        <v>0.5882352941176471</v>
+      </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -1873,7 +1897,9 @@
       <c r="C24" t="s" s="3">
         <v>61</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4">
+        <v>0.7058823529411765</v>
+      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -1907,7 +1933,9 @@
       <c r="C26" t="s" s="3">
         <v>66</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4">
+        <v>0.5294117647058824</v>
+      </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -1941,7 +1969,9 @@
       <c r="C28" t="s" s="3">
         <v>70</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="4">
+        <v>0.4705882352941176</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -1975,7 +2005,9 @@
       <c r="C30" t="s" s="3">
         <v>75</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4">
+        <v>0.7647058823529411</v>
+      </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -2009,7 +2041,9 @@
       <c r="C32" t="s" s="3">
         <v>79</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="4">
+        <v>0.2352941176470588</v>
+      </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -2043,7 +2077,9 @@
       <c r="C34" t="s" s="3">
         <v>84</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="4">
+        <v>0.4117647058823529</v>
+      </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -2059,7 +2095,9 @@
       <c r="C35" t="s" s="3">
         <v>87</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="4">
+        <v>0.6764705882352942</v>
+      </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -2075,7 +2113,9 @@
       <c r="C36" t="s" s="3">
         <v>89</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="4">
+        <v>0.3235294117647059</v>
+      </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>

--- a/1262020cw.xlsx
+++ b/1262020cw.xlsx
@@ -25,7 +25,7 @@
     <t>Test_1</t>
   </si>
   <si>
-    <t>Test 2</t>
+    <t>Test_2</t>
   </si>
   <si>
     <t>Test 3</t>
@@ -1504,7 +1504,7 @@
       <c r="D2" s="4">
         <v>0.5294117647058824</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1522,7 +1522,9 @@
       <c r="D3" s="4">
         <v>0.6764705882352942</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="4">
+        <v>0.4</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1540,7 +1542,7 @@
       <c r="D4" s="4">
         <v>0.7647058823529411</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1558,7 +1560,7 @@
       <c r="D5" s="4">
         <v>0.5588235294117647</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1576,7 +1578,7 @@
       <c r="D6" s="4">
         <v>0.6764705882352942</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1594,7 +1596,7 @@
       <c r="D7" s="4">
         <v>0.6470588235294118</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1612,7 +1614,7 @@
       <c r="D8" s="4">
         <v>0.6470588235294118</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1630,7 +1632,7 @@
       <c r="D9" s="4">
         <v>0.7352941176470589</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -1648,7 +1650,9 @@
       <c r="D10" s="4">
         <v>0.3529411764705883</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="4">
+        <v>0.4</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1666,7 +1670,7 @@
       <c r="D11" s="4">
         <v>0.5588235294117647</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -1684,7 +1688,7 @@
       <c r="D12" s="4">
         <v>0.4117647058823529</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -1702,7 +1706,7 @@
       <c r="D13" s="4">
         <v>0.3529411764705883</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1720,7 +1724,7 @@
       <c r="D14" s="4">
         <v>0.5588235294117647</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1738,7 +1742,7 @@
       <c r="D15" s="6">
         <v>0.3235294117647059</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1756,7 +1760,7 @@
       <c r="D16" s="4">
         <v>0.6470588235294118</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1774,7 +1778,7 @@
       <c r="D17" s="4">
         <v>0.5588235294117647</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1792,7 +1796,9 @@
       <c r="D18" s="4">
         <v>0.7941176470588235</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="4">
+        <v>0.7962962962962963</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -1810,7 +1816,7 @@
       <c r="D19" s="4">
         <v>0.5</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1828,7 +1834,7 @@
       <c r="D20" s="4">
         <v>0.4705882352941176</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1846,7 +1852,7 @@
       <c r="D21" s="4">
         <v>0.6470588235294118</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -1864,7 +1870,7 @@
       <c r="D22" s="4">
         <v>0.5882352941176471</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -1882,7 +1888,7 @@
       <c r="D23" s="4">
         <v>0.6176470588235294</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -1900,7 +1906,9 @@
       <c r="D24" s="4">
         <v>0.7058823529411765</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="4">
+        <v>0.4</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -1918,7 +1926,7 @@
       <c r="D25" s="4">
         <v>0.5588235294117647</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -1936,7 +1944,9 @@
       <c r="D26" s="4">
         <v>0.5294117647058824</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="4">
+        <v>0.5370370370370371</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -1954,7 +1964,9 @@
       <c r="D27" s="4">
         <v>0.7058823529411765</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="4">
+        <v>0.7222222222222222</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -1972,7 +1984,9 @@
       <c r="D28" s="4">
         <v>0.4705882352941176</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="4">
+        <v>0.4</v>
+      </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -1990,7 +2004,7 @@
       <c r="D29" s="4">
         <v>0.5</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -2008,7 +2022,7 @@
       <c r="D30" s="4">
         <v>0.7647058823529411</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -2026,7 +2040,7 @@
       <c r="D31" s="4">
         <v>0.8235294117647058</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -2044,7 +2058,7 @@
       <c r="D32" s="4">
         <v>0.2352941176470588</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -2062,7 +2076,7 @@
       <c r="D33" s="4">
         <v>0.7647058823529411</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -2080,7 +2094,7 @@
       <c r="D34" s="4">
         <v>0.4117647058823529</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -2098,7 +2112,7 @@
       <c r="D35" s="4">
         <v>0.6764705882352942</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -2116,7 +2130,7 @@
       <c r="D36" s="4">
         <v>0.3235294117647059</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>

--- a/1262020cw.xlsx
+++ b/1262020cw.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>Surname</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t>H190386P</t>
+  </si>
+  <si>
+    <t>Mudondo</t>
+  </si>
+  <si>
+    <t>H190403P</t>
   </si>
   <si>
     <t>Munyoro</t>
@@ -1452,7 +1458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1632,7 +1638,9 @@
       <c r="D9" s="4">
         <v>0.7352941176470589</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4">
+        <v>0.8518518518518519</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -1688,7 +1696,9 @@
       <c r="D12" s="4">
         <v>0.4117647058823529</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4">
+        <v>0.7592592592592593</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -1897,14 +1907,12 @@
       <c r="A24" t="s" s="3">
         <v>59</v>
       </c>
-      <c r="B24" t="s" s="3">
+      <c r="B24" s="5"/>
+      <c r="C24" t="s" s="3">
         <v>60</v>
       </c>
-      <c r="C24" t="s" s="3">
-        <v>61</v>
-      </c>
       <c r="D24" s="4">
-        <v>0.7058823529411765</v>
+        <v>0</v>
       </c>
       <c r="E24" s="4">
         <v>0.4</v>
@@ -1915,38 +1923,38 @@
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s" s="3">
         <v>62</v>
       </c>
-      <c r="B25" t="s" s="3">
+      <c r="C25" t="s" s="3">
         <v>63</v>
       </c>
-      <c r="C25" t="s" s="3">
-        <v>64</v>
-      </c>
       <c r="D25" s="4">
-        <v>0.5588235294117647</v>
-      </c>
-      <c r="E25" s="4"/>
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.4</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="s" s="3">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s" s="3">
         <v>65</v>
-      </c>
-      <c r="B26" t="s" s="3">
-        <v>63</v>
       </c>
       <c r="C26" t="s" s="3">
         <v>66</v>
       </c>
       <c r="D26" s="4">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0.5370370370370371</v>
-      </c>
+        <v>0.5588235294117647</v>
+      </c>
+      <c r="E26" s="4"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -1956,16 +1964,16 @@
         <v>67</v>
       </c>
       <c r="B27" t="s" s="3">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s" s="3">
         <v>68</v>
       </c>
       <c r="D27" s="4">
-        <v>0.7058823529411765</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="E27" s="4">
-        <v>0.7222222222222222</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -1976,16 +1984,16 @@
         <v>69</v>
       </c>
       <c r="B28" t="s" s="3">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s" s="3">
         <v>70</v>
       </c>
       <c r="D28" s="4">
-        <v>0.4705882352941176</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="E28" s="4">
-        <v>0.4</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -1996,15 +2004,17 @@
         <v>71</v>
       </c>
       <c r="B29" t="s" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s" s="3">
         <v>72</v>
       </c>
       <c r="D29" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E29" s="4"/>
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.4</v>
+      </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -2014,13 +2024,13 @@
         <v>73</v>
       </c>
       <c r="B30" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s" s="3">
         <v>74</v>
       </c>
-      <c r="C30" t="s" s="3">
-        <v>75</v>
-      </c>
       <c r="D30" s="4">
-        <v>0.7647058823529411</v>
+        <v>0.5</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
@@ -2029,18 +2039,20 @@
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s" s="3">
         <v>76</v>
-      </c>
-      <c r="B31" t="s" s="3">
-        <v>51</v>
       </c>
       <c r="C31" t="s" s="3">
         <v>77</v>
       </c>
       <c r="D31" s="4">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="E31" s="4"/>
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.3518518518518519</v>
+      </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -2050,13 +2062,13 @@
         <v>78</v>
       </c>
       <c r="B32" t="s" s="3">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s" s="3">
         <v>79</v>
       </c>
       <c r="D32" s="4">
-        <v>0.2352941176470588</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="5"/>
@@ -2068,13 +2080,13 @@
         <v>80</v>
       </c>
       <c r="B33" t="s" s="3">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s" s="3">
         <v>81</v>
       </c>
-      <c r="C33" t="s" s="3">
-        <v>82</v>
-      </c>
       <c r="D33" s="4">
-        <v>0.7647058823529411</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="5"/>
@@ -2083,16 +2095,16 @@
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s" s="3">
         <v>83</v>
-      </c>
-      <c r="B34" t="s" s="3">
-        <v>18</v>
       </c>
       <c r="C34" t="s" s="3">
         <v>84</v>
       </c>
       <c r="D34" s="4">
-        <v>0.4117647058823529</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="5"/>
@@ -2104,13 +2116,13 @@
         <v>85</v>
       </c>
       <c r="B35" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s" s="3">
         <v>86</v>
       </c>
-      <c r="C35" t="s" s="3">
-        <v>87</v>
-      </c>
       <c r="D35" s="4">
-        <v>0.6764705882352942</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="5"/>
@@ -2119,21 +2131,39 @@
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="s" s="3">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s" s="3">
         <v>88</v>
-      </c>
-      <c r="B36" t="s" s="3">
-        <v>15</v>
       </c>
       <c r="C36" t="s" s="3">
         <v>89</v>
       </c>
       <c r="D36" s="4">
-        <v>0.3235294117647059</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
+    </row>
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" t="s" s="3">
+        <v>90</v>
+      </c>
+      <c r="B37" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1262020cw.xlsx
+++ b/1262020cw.xlsx
@@ -1620,7 +1620,9 @@
       <c r="D8" s="4">
         <v>0.6470588235294118</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4">
+        <v>0.8148148148148148</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1826,7 +1828,9 @@
       <c r="D19" s="4">
         <v>0.5</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4">
+        <v>0.6111111111111112</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -2088,7 +2092,9 @@
       <c r="D33" s="4">
         <v>0.2352941176470588</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E33" s="4">
+        <v>0.6481481481481481</v>
+      </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>

--- a/1262020cw.xlsx
+++ b/1262020cw.xlsx
@@ -1510,7 +1510,9 @@
       <c r="D2" s="4">
         <v>0.5294117647058824</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4">
+        <v>0.8518518518518519</v>
+      </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1566,7 +1568,9 @@
       <c r="D5" s="4">
         <v>0.5588235294117647</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4">
+        <v>0.6111111111111112</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1736,7 +1740,9 @@
       <c r="D14" s="4">
         <v>0.5588235294117647</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4">
+        <v>0.4814814814814815</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>

--- a/1262020cw.xlsx
+++ b/1262020cw.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>Surname</t>
   </si>
@@ -28,10 +28,7 @@
     <t>Test_2</t>
   </si>
   <si>
-    <t>Test 3</t>
-  </si>
-  <si>
-    <t>AS</t>
+    <t>Test_3</t>
   </si>
   <si>
     <t>CW</t>
@@ -1458,7 +1455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1467,8 +1464,8 @@
     <col min="1" max="1" width="13.3047" style="1" customWidth="1"/>
     <col min="2" max="2" hidden="1" width="8.83333" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.4609" style="1" customWidth="1"/>
-    <col min="4" max="8" width="8.85156" style="1" customWidth="1"/>
-    <col min="9" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="4" max="7" width="8.85156" style="1" customWidth="1"/>
+    <col min="8" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -1493,19 +1490,16 @@
       <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="C2" t="s" s="3">
         <v>9</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>10</v>
       </c>
       <c r="D2" s="4">
         <v>0.5294117647058824</v>
@@ -1515,17 +1509,16 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="C3" t="s" s="3">
         <v>12</v>
-      </c>
-      <c r="C3" t="s" s="3">
-        <v>13</v>
       </c>
       <c r="D3" s="4">
         <v>0.6764705882352942</v>
@@ -1535,17 +1528,16 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="C4" t="s" s="3">
         <v>15</v>
-      </c>
-      <c r="C4" t="s" s="3">
-        <v>16</v>
       </c>
       <c r="D4" s="4">
         <v>0.7647058823529411</v>
@@ -1553,17 +1545,16 @@
       <c r="E4" s="4"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="C5" t="s" s="3">
         <v>18</v>
-      </c>
-      <c r="C5" t="s" s="3">
-        <v>19</v>
       </c>
       <c r="D5" s="4">
         <v>0.5588235294117647</v>
@@ -1573,17 +1564,16 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s" s="3">
         <v>20</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="C6" t="s" s="3">
         <v>21</v>
-      </c>
-      <c r="C6" t="s" s="3">
-        <v>22</v>
       </c>
       <c r="D6" s="4">
         <v>0.6764705882352942</v>
@@ -1591,35 +1581,35 @@
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="3">
         <v>23</v>
       </c>
-      <c r="B7" t="s" s="3">
+      <c r="C7" t="s" s="3">
         <v>24</v>
-      </c>
-      <c r="C7" t="s" s="3">
-        <v>25</v>
       </c>
       <c r="D7" s="4">
         <v>0.6470588235294118</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4">
+        <v>0.43</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s" s="3">
         <v>26</v>
-      </c>
-      <c r="B8" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s" s="3">
-        <v>27</v>
       </c>
       <c r="D8" s="4">
         <v>0.6470588235294118</v>
@@ -1629,17 +1619,16 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s" s="3">
         <v>28</v>
-      </c>
-      <c r="B9" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s" s="3">
-        <v>29</v>
       </c>
       <c r="D9" s="4">
         <v>0.7352941176470589</v>
@@ -1649,17 +1638,16 @@
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s" s="3">
         <v>30</v>
-      </c>
-      <c r="B10" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s" s="3">
-        <v>31</v>
       </c>
       <c r="D10" s="4">
         <v>0.3529411764705883</v>
@@ -1669,17 +1657,16 @@
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s" s="3">
         <v>32</v>
-      </c>
-      <c r="B11" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s" s="3">
-        <v>33</v>
       </c>
       <c r="D11" s="4">
         <v>0.5588235294117647</v>
@@ -1687,17 +1674,16 @@
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s" s="3">
         <v>34</v>
-      </c>
-      <c r="B12" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s" s="3">
-        <v>35</v>
       </c>
       <c r="D12" s="4">
         <v>0.4117647058823529</v>
@@ -1707,17 +1693,16 @@
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s" s="3">
         <v>36</v>
-      </c>
-      <c r="B13" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s" s="3">
-        <v>37</v>
       </c>
       <c r="D13" s="4">
         <v>0.3529411764705883</v>
@@ -1725,17 +1710,16 @@
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s" s="3">
         <v>38</v>
-      </c>
-      <c r="B14" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s" s="3">
-        <v>39</v>
       </c>
       <c r="D14" s="4">
         <v>0.5588235294117647</v>
@@ -1745,17 +1729,16 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s" s="3">
         <v>40</v>
-      </c>
-      <c r="B15" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s" s="3">
-        <v>41</v>
       </c>
       <c r="D15" s="6">
         <v>0.3235294117647059</v>
@@ -1763,17 +1746,16 @@
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s" s="3">
         <v>42</v>
-      </c>
-      <c r="B16" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s" s="3">
-        <v>43</v>
       </c>
       <c r="D16" s="4">
         <v>0.6470588235294118</v>
@@ -1781,17 +1763,16 @@
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s" s="3">
         <v>44</v>
-      </c>
-      <c r="B17" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s" s="3">
-        <v>45</v>
       </c>
       <c r="D17" s="4">
         <v>0.5588235294117647</v>
@@ -1799,17 +1780,16 @@
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="s" s="3">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s" s="3">
         <v>46</v>
-      </c>
-      <c r="B18" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s" s="3">
-        <v>47</v>
       </c>
       <c r="D18" s="4">
         <v>0.7941176470588235</v>
@@ -1819,17 +1799,16 @@
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="s" s="3">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s" s="3">
         <v>48</v>
-      </c>
-      <c r="B19" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s" s="3">
-        <v>49</v>
       </c>
       <c r="D19" s="4">
         <v>0.5</v>
@@ -1839,17 +1818,16 @@
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="s" s="3">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s" s="3">
         <v>50</v>
       </c>
-      <c r="B20" t="s" s="3">
+      <c r="C20" t="s" s="3">
         <v>51</v>
-      </c>
-      <c r="C20" t="s" s="3">
-        <v>52</v>
       </c>
       <c r="D20" s="4">
         <v>0.4705882352941176</v>
@@ -1857,17 +1835,16 @@
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s" s="3">
         <v>53</v>
-      </c>
-      <c r="B21" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s" s="3">
-        <v>54</v>
       </c>
       <c r="D21" s="4">
         <v>0.6470588235294118</v>
@@ -1875,17 +1852,16 @@
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s" s="3">
         <v>55</v>
-      </c>
-      <c r="B22" t="s" s="3">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s" s="3">
-        <v>56</v>
       </c>
       <c r="D22" s="4">
         <v>0.5882352941176471</v>
@@ -1893,17 +1869,16 @@
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s" s="3">
         <v>57</v>
-      </c>
-      <c r="B23" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s" s="3">
-        <v>58</v>
       </c>
       <c r="D23" s="4">
         <v>0.6176470588235294</v>
@@ -1911,15 +1886,14 @@
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="s" s="3">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" t="s" s="3">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
@@ -1929,17 +1903,16 @@
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s" s="3">
         <v>61</v>
       </c>
-      <c r="B25" t="s" s="3">
+      <c r="C25" t="s" s="3">
         <v>62</v>
-      </c>
-      <c r="C25" t="s" s="3">
-        <v>63</v>
       </c>
       <c r="D25" s="4">
         <v>0.7058823529411765</v>
@@ -1949,17 +1922,16 @@
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s" s="3">
         <v>64</v>
       </c>
-      <c r="B26" t="s" s="3">
+      <c r="C26" t="s" s="3">
         <v>65</v>
-      </c>
-      <c r="C26" t="s" s="3">
-        <v>66</v>
       </c>
       <c r="D26" s="4">
         <v>0.5588235294117647</v>
@@ -1967,17 +1939,16 @@
       <c r="E26" s="4"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s" s="3">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s" s="3">
         <v>67</v>
-      </c>
-      <c r="B27" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="C27" t="s" s="3">
-        <v>68</v>
       </c>
       <c r="D27" s="4">
         <v>0.5294117647058824</v>
@@ -1987,17 +1958,16 @@
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s" s="3">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s" s="3">
         <v>69</v>
-      </c>
-      <c r="B28" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="C28" t="s" s="3">
-        <v>70</v>
       </c>
       <c r="D28" s="4">
         <v>0.7058823529411765</v>
@@ -2007,17 +1977,16 @@
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s" s="3">
         <v>71</v>
-      </c>
-      <c r="B29" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="C29" t="s" s="3">
-        <v>72</v>
       </c>
       <c r="D29" s="4">
         <v>0.4705882352941176</v>
@@ -2027,35 +1996,35 @@
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s" s="3">
         <v>73</v>
-      </c>
-      <c r="B30" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s" s="3">
-        <v>74</v>
       </c>
       <c r="D30" s="4">
         <v>0.5</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="4">
+        <v>0.76</v>
+      </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s" s="3">
         <v>75</v>
       </c>
-      <c r="B31" t="s" s="3">
+      <c r="C31" t="s" s="3">
         <v>76</v>
-      </c>
-      <c r="C31" t="s" s="3">
-        <v>77</v>
       </c>
       <c r="D31" s="4">
         <v>0.7647058823529411</v>
@@ -2065,35 +2034,35 @@
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s" s="3">
         <v>78</v>
-      </c>
-      <c r="B32" t="s" s="3">
-        <v>51</v>
-      </c>
-      <c r="C32" t="s" s="3">
-        <v>79</v>
       </c>
       <c r="D32" s="4">
         <v>0.8235294117647058</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="4">
+        <v>0.7</v>
+      </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="s" s="3">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s" s="3">
         <v>80</v>
-      </c>
-      <c r="B33" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="C33" t="s" s="3">
-        <v>81</v>
       </c>
       <c r="D33" s="4">
         <v>0.2352941176470588</v>
@@ -2103,53 +2072,54 @@
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="s" s="3">
+        <v>81</v>
+      </c>
+      <c r="B34" t="s" s="3">
         <v>82</v>
       </c>
-      <c r="B34" t="s" s="3">
+      <c r="C34" t="s" s="3">
         <v>83</v>
-      </c>
-      <c r="C34" t="s" s="3">
-        <v>84</v>
       </c>
       <c r="D34" s="4">
         <v>0.7647058823529411</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="4">
+        <v>0.87</v>
+      </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="s" s="3">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s" s="3">
         <v>85</v>
-      </c>
-      <c r="B35" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="C35" t="s" s="3">
-        <v>86</v>
       </c>
       <c r="D35" s="4">
         <v>0.4117647058823529</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="E35" s="4">
+        <v>0.72</v>
+      </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="s" s="3">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s" s="3">
         <v>87</v>
       </c>
-      <c r="B36" t="s" s="3">
+      <c r="C36" t="s" s="3">
         <v>88</v>
-      </c>
-      <c r="C36" t="s" s="3">
-        <v>89</v>
       </c>
       <c r="D36" s="4">
         <v>0.6764705882352942</v>
@@ -2157,17 +2127,16 @@
       <c r="E36" s="4"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="B37" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s" s="3">
         <v>90</v>
-      </c>
-      <c r="B37" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="C37" t="s" s="3">
-        <v>91</v>
       </c>
       <c r="D37" s="4">
         <v>0.3235294117647059</v>
@@ -2175,7 +2144,6 @@
       <c r="E37" s="4"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1262020cw.xlsx
+++ b/1262020cw.xlsx
@@ -1542,7 +1542,9 @@
       <c r="D4" s="4">
         <v>0.7647058823529411</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4">
+        <v>0.74</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -1578,7 +1580,9 @@
       <c r="D6" s="4">
         <v>0.6764705882352942</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4">
+        <v>0.8</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
@@ -1777,7 +1781,9 @@
       <c r="D17" s="4">
         <v>0.5588235294117647</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4">
+        <v>0.96</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
@@ -1866,7 +1872,9 @@
       <c r="D22" s="4">
         <v>0.5882352941176471</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="4">
+        <v>0.65</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
@@ -2124,7 +2132,9 @@
       <c r="D36" s="4">
         <v>0.6764705882352942</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="4">
+        <v>0.93</v>
+      </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
@@ -2141,7 +2151,9 @@
       <c r="D37" s="4">
         <v>0.3235294117647059</v>
       </c>
-      <c r="E37" s="4"/>
+      <c r="E37" s="4">
+        <v>0.59</v>
+      </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>

--- a/1262020cw.xlsx
+++ b/1262020cw.xlsx
@@ -1507,7 +1507,9 @@
       <c r="E2" s="4">
         <v>0.8518518518518519</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="4">
+        <v>0.88</v>
+      </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -1640,7 +1642,9 @@
       <c r="E9" s="4">
         <v>0.8518518518518519</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="4">
+        <v>0.89</v>
+      </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" ht="15" customHeight="1">
@@ -1822,7 +1826,9 @@
       <c r="E19" s="4">
         <v>0.6111111111111112</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="4">
+        <v>0.64</v>
+      </c>
       <c r="G19" s="5"/>
     </row>
     <row r="20" ht="15" customHeight="1">
@@ -1856,7 +1862,9 @@
         <v>0.6470588235294118</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="4">
+        <v>0.89</v>
+      </c>
       <c r="G21" s="5"/>
     </row>
     <row r="22" ht="15" customHeight="1">
@@ -1964,7 +1972,9 @@
       <c r="E27" s="4">
         <v>0.5370370370370371</v>
       </c>
-      <c r="F27" s="5"/>
+      <c r="F27" s="4">
+        <v>0.89</v>
+      </c>
       <c r="G27" s="5"/>
     </row>
     <row r="28" ht="15" customHeight="1">
@@ -2078,7 +2088,9 @@
       <c r="E33" s="4">
         <v>0.6481481481481481</v>
       </c>
-      <c r="F33" s="5"/>
+      <c r="F33" s="4">
+        <v>0.89</v>
+      </c>
       <c r="G33" s="5"/>
     </row>
     <row r="34" ht="15" customHeight="1">

--- a/1262020cw.xlsx
+++ b/1262020cw.xlsx
@@ -112,46 +112,46 @@
     <t>H190385T</t>
   </si>
   <si>
-    <t>Egenia</t>
+    <t>Gondo</t>
+  </si>
+  <si>
+    <t>H190538F</t>
+  </si>
+  <si>
+    <t>Govere</t>
+  </si>
+  <si>
+    <t>H190677E</t>
+  </si>
+  <si>
+    <t>Govha</t>
+  </si>
+  <si>
+    <t>H190378R</t>
+  </si>
+  <si>
+    <t>Jenu</t>
+  </si>
+  <si>
+    <t>H190680Q</t>
+  </si>
+  <si>
+    <t>Kasosera</t>
+  </si>
+  <si>
+    <t>H190797A</t>
+  </si>
+  <si>
+    <t>Kavumbura</t>
+  </si>
+  <si>
+    <t>H190204J</t>
+  </si>
+  <si>
+    <t>Machinga</t>
   </si>
   <si>
     <t>H190312X</t>
-  </si>
-  <si>
-    <t>Gondo</t>
-  </si>
-  <si>
-    <t>H190538F</t>
-  </si>
-  <si>
-    <t>Govere</t>
-  </si>
-  <si>
-    <t>H190677E</t>
-  </si>
-  <si>
-    <t>Govha</t>
-  </si>
-  <si>
-    <t>H190378R</t>
-  </si>
-  <si>
-    <t>Jenu</t>
-  </si>
-  <si>
-    <t>H190680Q</t>
-  </si>
-  <si>
-    <t>Kasosera</t>
-  </si>
-  <si>
-    <t>H190797A</t>
-  </si>
-  <si>
-    <t>Kavumbura</t>
-  </si>
-  <si>
-    <t>H190204J</t>
   </si>
   <si>
     <t>Mahlangu</t>
@@ -1510,7 +1510,10 @@
       <c r="F2" s="4">
         <v>0.88</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="4">
+        <f>(D2+E2+F2)/3</f>
+        <v>0.753754538852578</v>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="s" s="3">
@@ -1528,8 +1531,13 @@
       <c r="E3" s="4">
         <v>0.4</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="F3" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="G3" s="4">
+        <f>(D3+E3+F3)/3</f>
+        <v>0.6354901960784315</v>
+      </c>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="s" s="3">
@@ -1548,7 +1556,9 @@
         <v>0.74</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="4">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="s" s="3">
@@ -1567,7 +1577,9 @@
         <v>0.6111111111111112</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="4">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="s" s="3">
@@ -1585,8 +1597,13 @@
       <c r="E6" s="4">
         <v>0.8</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="F6" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G6" s="4">
+        <f>(D6+E6+F6)/3</f>
+        <v>0.7588235294117647</v>
+      </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="s" s="3">
@@ -1604,8 +1621,13 @@
       <c r="E7" s="4">
         <v>0.43</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="G7" s="4">
+        <f>(D7+E7+F7)/3</f>
+        <v>0.515686274509804</v>
+      </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="s" s="3">
@@ -1623,8 +1645,13 @@
       <c r="E8" s="4">
         <v>0.8148148148148148</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="G8" s="4">
+        <f>(D8+E8+F8)/3</f>
+        <v>0.7372912127814089</v>
+      </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="s" s="3">
@@ -1645,7 +1672,10 @@
       <c r="F9" s="4">
         <v>0.89</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="4">
+        <f>(D9+E9+F9)/3</f>
+        <v>0.8257153231663036</v>
+      </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="s" s="3">
@@ -1663,8 +1693,13 @@
       <c r="E10" s="4">
         <v>0.4</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="F10" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="G10" s="4">
+        <f>(D10+E10+F10)/3</f>
+        <v>0.5376470588235294</v>
+      </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="s" s="3">
@@ -1680,27 +1715,31 @@
         <v>0.5588235294117647</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="F11" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="s" s="3">
         <v>33</v>
       </c>
       <c r="B12" t="s" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s" s="3">
         <v>34</v>
       </c>
       <c r="D12" s="4">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.7592592592592593</v>
-      </c>
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="E12" s="4"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="4">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="s" s="3">
@@ -1713,11 +1752,18 @@
         <v>36</v>
       </c>
       <c r="D13" s="4">
-        <v>0.3529411764705883</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+        <v>0.5588235294117647</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.4814814814814815</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="G13" s="4">
+        <f>(D13+E13+F13)/3</f>
+        <v>0.6067683369644153</v>
+      </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="s" s="3">
@@ -1729,14 +1775,16 @@
       <c r="C14" t="s" s="3">
         <v>38</v>
       </c>
-      <c r="D14" s="4">
-        <v>0.5588235294117647</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.4814814814814815</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="D14" s="6">
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="s" s="3">
@@ -1748,12 +1796,16 @@
       <c r="C15" t="s" s="3">
         <v>40</v>
       </c>
-      <c r="D15" s="6">
-        <v>0.3235294117647059</v>
+      <c r="D15" s="4">
+        <v>0.6470588235294118</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="F15" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="s" s="3">
@@ -1766,11 +1818,18 @@
         <v>42</v>
       </c>
       <c r="D16" s="4">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+        <v>0.5588235294117647</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="G16" s="4">
+        <f>(D16+E16+F16)/3</f>
+        <v>0.7029411764705883</v>
+      </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="s" s="3">
@@ -1783,32 +1842,42 @@
         <v>44</v>
       </c>
       <c r="D17" s="4">
-        <v>0.5588235294117647</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="E17" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+        <v>0.7962962962962963</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="G17" s="4">
+        <f>(D17+E17+F17)/3</f>
+        <v>0.8168046477850398</v>
+      </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="s" s="3">
         <v>45</v>
       </c>
       <c r="B18" t="s" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s" s="3">
         <v>46</v>
       </c>
       <c r="D18" s="4">
-        <v>0.7941176470588235</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="E18" s="4">
-        <v>0.7962962962962963</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+        <v>0.7592592592592593</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="G18" s="4">
+        <f>(D18+E18+F18)/3</f>
+        <v>0.6470079883805374</v>
+      </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="s" s="3">
@@ -1829,7 +1898,10 @@
       <c r="F19" s="4">
         <v>0.64</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4">
+        <f>(D19+E19+F19)/3</f>
+        <v>0.5837037037037037</v>
+      </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="s" s="3">
@@ -1845,8 +1917,12 @@
         <v>0.4705882352941176</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="F20" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="s" s="3">
@@ -1865,7 +1941,10 @@
       <c r="F21" s="4">
         <v>0.89</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4">
+        <f>(D21+E21+F21)/3</f>
+        <v>0.5123529411764706</v>
+      </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="s" s="3">
@@ -1883,8 +1962,13 @@
       <c r="E22" s="4">
         <v>0.65</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="F22" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="G22" s="4">
+        <f>(D22+E22+F22)/3</f>
+        <v>0.7094117647058824</v>
+      </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="s" s="3">
@@ -1900,8 +1984,12 @@
         <v>0.6176470588235294</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="F23" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="s" s="3">
@@ -1911,14 +1999,16 @@
       <c r="C24" t="s" s="3">
         <v>59</v>
       </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
+      <c r="D24" s="4"/>
       <c r="E24" s="4">
         <v>0.4</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="F24" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="s" s="3">
@@ -1937,7 +2027,9 @@
         <v>0.4</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="s" s="3">
@@ -1952,9 +2044,13 @@
       <c r="D26" s="4">
         <v>0.5588235294117647</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="4">
+        <v>0.5</v>
+      </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="s" s="3">
@@ -1975,7 +2071,10 @@
       <c r="F27" s="4">
         <v>0.89</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4">
+        <f>(D27+E27+F27)/3</f>
+        <v>0.6521496005809732</v>
+      </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="s" s="3">
@@ -1993,8 +2092,13 @@
       <c r="E28" s="4">
         <v>0.7222222222222222</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="F28" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="G28" s="4">
+        <f>(D28+E28+F28)/3</f>
+        <v>0.7627015250544663</v>
+      </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="s" s="3">
@@ -2012,8 +2116,13 @@
       <c r="E29" s="4">
         <v>0.4</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="F29" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G29" s="4">
+        <f>(D29+E29+F29)/3</f>
+        <v>0.5901960784313726</v>
+      </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="s" s="3">
@@ -2032,7 +2141,9 @@
         <v>0.76</v>
       </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="G30" s="4">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="s" s="3">
@@ -2050,8 +2161,13 @@
       <c r="E31" s="4">
         <v>0.3518518518518519</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="F31" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G31" s="4">
+        <f>(D31+E31+F31)/3</f>
+        <v>0.605519244734931</v>
+      </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="s" s="3">
@@ -2069,8 +2185,13 @@
       <c r="E32" s="4">
         <v>0.7</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="F32" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="G32" s="4">
+        <f>(D32+E32+F32)/3</f>
+        <v>0.7511764705882352</v>
+      </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="s" s="3">
@@ -2091,7 +2212,10 @@
       <c r="F33" s="4">
         <v>0.89</v>
       </c>
-      <c r="G33" s="5"/>
+      <c r="G33" s="4">
+        <f>(D33+E33+F33)/3</f>
+        <v>0.5911474219317356</v>
+      </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="s" s="3">
@@ -2109,8 +2233,13 @@
       <c r="E34" s="4">
         <v>0.87</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="F34" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="G34" s="4">
+        <f>(D34+E34+F34)/3</f>
+        <v>0.8049019607843139</v>
+      </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="s" s="3">
@@ -2128,8 +2257,13 @@
       <c r="E35" s="4">
         <v>0.72</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="F35" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="G35" s="4">
+        <f>(D35+E35+F35)/3</f>
+        <v>0.6705882352941176</v>
+      </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="s" s="3">
@@ -2147,8 +2281,13 @@
       <c r="E36" s="4">
         <v>0.93</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="F36" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="G36" s="4">
+        <f>(D36+E36+F36)/3</f>
+        <v>0.832156862745098</v>
+      </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="s" s="3">
@@ -2166,8 +2305,13 @@
       <c r="E37" s="4">
         <v>0.59</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="F37" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="G37" s="4">
+        <f>(D37+E37+F37)/3</f>
+        <v>0.5978431372549019</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
